--- a/Code/Results/Cases/Case_3_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98894455766492</v>
+        <v>12.88798970853751</v>
       </c>
       <c r="C2">
-        <v>12.99031710948029</v>
+        <v>6.574817944023444</v>
       </c>
       <c r="D2">
-        <v>9.684317691007763</v>
+        <v>7.665164441200761</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.35299655820739</v>
+        <v>44.54936210137549</v>
       </c>
       <c r="G2">
-        <v>2.037879926563741</v>
+        <v>3.643946163734529</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.05474090649504</v>
+        <v>19.97276543822908</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.56575983969143</v>
+        <v>12.55740894293622</v>
       </c>
       <c r="C3">
-        <v>12.05512428010398</v>
+        <v>6.126145337998938</v>
       </c>
       <c r="D3">
-        <v>9.169987628279218</v>
+        <v>7.48964434358138</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.23879913273726</v>
+        <v>43.05163983448085</v>
       </c>
       <c r="G3">
-        <v>2.053316811894631</v>
+        <v>3.64865037905393</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.66911721154023</v>
+        <v>19.37634560475837</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65506553390069</v>
+        <v>12.35774551085176</v>
       </c>
       <c r="C4">
-        <v>11.45938113991568</v>
+        <v>5.833934163621654</v>
       </c>
       <c r="D4">
-        <v>8.849418224943676</v>
+        <v>7.379735629858411</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.64309885881126</v>
+        <v>42.11140927492345</v>
       </c>
       <c r="G4">
-        <v>2.062864210976721</v>
+        <v>3.651679232675459</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.16365842964664</v>
+        <v>19.00932864804849</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.2743203662992</v>
+        <v>12.27738491660901</v>
       </c>
       <c r="C5">
-        <v>11.21092495309956</v>
+        <v>5.710634602709279</v>
       </c>
       <c r="D5">
-        <v>8.717520378014095</v>
+        <v>7.334445440941832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.56742591839593</v>
+        <v>41.72357098524044</v>
       </c>
       <c r="G5">
-        <v>2.066780576633401</v>
+        <v>3.652949006992141</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.53864401142232</v>
+        <v>18.8598085995581</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.21050643970895</v>
+        <v>12.26410675540896</v>
       </c>
       <c r="C6">
-        <v>11.16931826741268</v>
+        <v>5.689905401646737</v>
       </c>
       <c r="D6">
-        <v>8.695541406413106</v>
+        <v>7.326895842909241</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.38772364044643</v>
+        <v>41.65890307469879</v>
       </c>
       <c r="G6">
-        <v>2.067432662542374</v>
+        <v>3.653162000801406</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.4341305955468</v>
+        <v>18.83499089514115</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.6499701134849</v>
+        <v>12.35665744819888</v>
       </c>
       <c r="C7">
-        <v>11.45605373014261</v>
+        <v>5.832288414657173</v>
       </c>
       <c r="D7">
-        <v>8.847644575866823</v>
+        <v>7.379126811938118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.62866477508697</v>
+        <v>42.10619703808617</v>
       </c>
       <c r="G7">
-        <v>2.062916914089521</v>
+        <v>3.65169621335744</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.15527750521844</v>
+        <v>19.00731166260864</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.50564763349691</v>
+        <v>12.77341889958291</v>
       </c>
       <c r="C8">
-        <v>12.67215636867344</v>
+        <v>6.423577308784815</v>
       </c>
       <c r="D8">
-        <v>9.507915132511961</v>
+        <v>7.605110233849905</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.94851609681675</v>
+        <v>44.03751416307942</v>
       </c>
       <c r="G8">
-        <v>2.043193636689733</v>
+        <v>3.645539133603154</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.23976472266345</v>
+        <v>19.76743290242693</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.87114748487589</v>
+        <v>13.60968510619682</v>
       </c>
       <c r="C9">
-        <v>14.90051610210424</v>
+        <v>7.451104347692016</v>
       </c>
       <c r="D9">
-        <v>10.77019883993806</v>
+        <v>8.02979216273217</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.8650370060376</v>
+        <v>47.64142131292402</v>
       </c>
       <c r="G9">
-        <v>2.004611023413081</v>
+        <v>3.634571459225055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.03951688754438</v>
+        <v>21.24139251680351</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.20865783178894</v>
+        <v>14.22632265512459</v>
       </c>
       <c r="C10">
-        <v>16.46666964743362</v>
+        <v>8.126554599458533</v>
       </c>
       <c r="D10">
-        <v>11.68981925237341</v>
+        <v>8.328675744415522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.91795014474442</v>
+        <v>50.15394026815972</v>
       </c>
       <c r="G10">
-        <v>1.975523797788926</v>
+        <v>3.627176658636887</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.28772365226676</v>
+        <v>22.30158717517285</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25179817900304</v>
+        <v>14.50551645540473</v>
       </c>
       <c r="C11">
-        <v>17.17076852921968</v>
+        <v>8.416789611111769</v>
       </c>
       <c r="D11">
-        <v>12.11094091964038</v>
+        <v>8.461439683325246</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.10556408878155</v>
+        <v>51.26343786854838</v>
       </c>
       <c r="G11">
-        <v>1.961882012196716</v>
+        <v>3.623954126003767</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>41.26523133946237</v>
+        <v>22.77662997845971</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.64488589366848</v>
+        <v>14.6109127140456</v>
       </c>
       <c r="C12">
-        <v>17.43695051523847</v>
+        <v>8.524261740093596</v>
       </c>
       <c r="D12">
-        <v>12.27137017585873</v>
+        <v>8.511226864601994</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.32459012466182</v>
+        <v>51.67847008162131</v>
       </c>
       <c r="G12">
-        <v>1.956628225218427</v>
+        <v>3.622753978087038</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.02664626735043</v>
+        <v>22.95530315406542</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.56029485410356</v>
+        <v>14.58823044666816</v>
       </c>
       <c r="C13">
-        <v>17.37962921497349</v>
+        <v>8.501223682568821</v>
       </c>
       <c r="D13">
-        <v>12.23676493096854</v>
+        <v>8.500526407847312</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.05724593940417</v>
+        <v>51.58931713957915</v>
       </c>
       <c r="G13">
-        <v>1.95776420096646</v>
+        <v>3.62301155784223</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.86197651138022</v>
+        <v>22.91687931497598</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.28416987283427</v>
+        <v>14.51419480786614</v>
       </c>
       <c r="C14">
-        <v>17.19267141126671</v>
+        <v>8.42568009196092</v>
       </c>
       <c r="D14">
-        <v>12.12411632640936</v>
+        <v>8.465545627782712</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.20488660092946</v>
+        <v>51.29768682526353</v>
       </c>
       <c r="G14">
-        <v>1.961451743126847</v>
+        <v>3.62385498619292</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>41.32757698014872</v>
+        <v>22.79135481524952</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.11481761386077</v>
+        <v>14.46879913668568</v>
       </c>
       <c r="C15">
-        <v>17.07812195552408</v>
+        <v>8.37909099604213</v>
       </c>
       <c r="D15">
-        <v>12.05526098880085</v>
+        <v>8.44405460435148</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.68555239747903</v>
+        <v>51.11838104288038</v>
       </c>
       <c r="G15">
-        <v>1.963697993680888</v>
+        <v>3.624374229927586</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>41.00210482944957</v>
+        <v>22.71430432356053</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.14015793757876</v>
+        <v>14.20803805385397</v>
       </c>
       <c r="C16">
-        <v>16.42054772205325</v>
+        <v>8.107245676529759</v>
       </c>
       <c r="D16">
-        <v>11.66239723277662</v>
+        <v>8.319932520480853</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.70949727089763</v>
+        <v>50.08073231401126</v>
       </c>
       <c r="G16">
-        <v>1.976404798155244</v>
+        <v>3.62739008885858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.15986139613377</v>
+        <v>22.27038100697327</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.53768650325703</v>
+        <v>14.04762991580623</v>
       </c>
       <c r="C17">
-        <v>16.01549287132256</v>
+        <v>7.936126387933118</v>
       </c>
       <c r="D17">
-        <v>11.42243860004403</v>
+        <v>8.242947855206831</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.88067977385205</v>
+        <v>49.43537432401035</v>
       </c>
       <c r="G17">
-        <v>1.984077096129564</v>
+        <v>3.629276310131734</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>38.0448550284029</v>
+        <v>21.99606396260711</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.18918895174842</v>
+        <v>13.95525101846533</v>
       </c>
       <c r="C18">
-        <v>15.7816757894455</v>
+        <v>7.83609916788793</v>
       </c>
       <c r="D18">
-        <v>11.28463956294352</v>
+        <v>8.198368650565719</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.82655731272023</v>
+        <v>49.06104757204588</v>
       </c>
       <c r="G18">
-        <v>1.988453577682223</v>
+        <v>3.630374534570278</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.40729391578883</v>
+        <v>21.83761138271729</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.07082885538508</v>
+        <v>13.92395752773659</v>
       </c>
       <c r="C19">
-        <v>15.70234476145506</v>
+        <v>7.801955723110201</v>
       </c>
       <c r="D19">
-        <v>11.23800684045068</v>
+        <v>8.183224304740879</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.46917405594566</v>
+        <v>48.93377841621393</v>
       </c>
       <c r="G19">
-        <v>1.989929866808102</v>
+        <v>3.630748667591777</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.19192387066145</v>
+        <v>21.78385209508432</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.60201835408624</v>
+        <v>14.06471872050128</v>
       </c>
       <c r="C20">
-        <v>16.05869369261234</v>
+        <v>7.95450821728539</v>
       </c>
       <c r="D20">
-        <v>11.44795653894743</v>
+        <v>8.25117422426332</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.07556935229336</v>
+        <v>49.50440041064606</v>
       </c>
       <c r="G20">
-        <v>1.983264317953027</v>
+        <v>3.629074141389045</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>38.16312348041326</v>
+        <v>22.02533640981761</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36531774029397</v>
+        <v>14.53595083573144</v>
       </c>
       <c r="C21">
-        <v>17.24759058435113</v>
+        <v>8.447934999337338</v>
       </c>
       <c r="D21">
-        <v>12.15717237900714</v>
+        <v>8.475833774034388</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.45397165031321</v>
+        <v>51.38348661984872</v>
       </c>
       <c r="G21">
-        <v>1.960371288618519</v>
+        <v>3.623606705254728</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.48413998947822</v>
+        <v>22.82825868127059</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.50715615216466</v>
+        <v>14.84195738781074</v>
       </c>
       <c r="C22">
-        <v>18.02250639506583</v>
+        <v>8.756240352644914</v>
       </c>
       <c r="D22">
-        <v>12.62671567406524</v>
+        <v>8.61980817324199</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.05838364078991</v>
+        <v>52.58167642993362</v>
       </c>
       <c r="G22">
-        <v>1.944875327866925</v>
+        <v>3.620150816761483</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.73298495160098</v>
+        <v>23.34586313992361</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89831080675891</v>
+        <v>14.67885939075814</v>
       </c>
       <c r="C23">
-        <v>17.60880995505684</v>
+        <v>8.592984142314112</v>
       </c>
       <c r="D23">
-        <v>12.3753133545073</v>
+        <v>8.543235972640241</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.12640883418717</v>
+        <v>51.94500565447632</v>
       </c>
       <c r="G23">
-        <v>1.953207049407882</v>
+        <v>3.621984606619376</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.5227730171408</v>
+        <v>23.07031514640595</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.57294062515708</v>
+        <v>14.05699335375713</v>
       </c>
       <c r="C24">
-        <v>16.03916560133292</v>
+        <v>7.946202927993022</v>
       </c>
       <c r="D24">
-        <v>11.43641943079025</v>
+        <v>8.247456076479532</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.98746847377447</v>
+        <v>49.47320397832867</v>
       </c>
       <c r="G24">
-        <v>1.983631880145325</v>
+        <v>3.629165498847502</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>38.10964392326868</v>
+        <v>22.01210464065968</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.98704037684615</v>
+        <v>13.38241367682543</v>
       </c>
       <c r="C25">
-        <v>14.31218615256726</v>
+        <v>7.187159102953592</v>
       </c>
       <c r="D25">
-        <v>10.43122542065816</v>
+        <v>7.917082684610495</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.23092460668485</v>
+        <v>46.6886871282603</v>
       </c>
       <c r="G25">
-        <v>2.015110235837808</v>
+        <v>3.637421230669551</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.48518818881988</v>
+        <v>20.84578926037821</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.88798970853751</v>
+        <v>18.98894455766516</v>
       </c>
       <c r="C2">
-        <v>6.574817944023444</v>
+        <v>12.99031710948002</v>
       </c>
       <c r="D2">
-        <v>7.665164441200761</v>
+        <v>9.684317691007777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.54936210137549</v>
+        <v>63.35299655820768</v>
       </c>
       <c r="G2">
-        <v>3.643946163734529</v>
+        <v>2.037879926563879</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97276543822908</v>
+        <v>30.05474090649509</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.55740894293622</v>
+        <v>17.5657598396914</v>
       </c>
       <c r="C3">
-        <v>6.126145337998938</v>
+        <v>12.05512428010388</v>
       </c>
       <c r="D3">
-        <v>7.48964434358138</v>
+        <v>9.169987628279314</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.05163983448085</v>
+        <v>59.23879913273725</v>
       </c>
       <c r="G3">
-        <v>3.64865037905393</v>
+        <v>2.053316811894756</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37634560475837</v>
+        <v>27.6691172115402</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35774551085176</v>
+        <v>16.65506553390076</v>
       </c>
       <c r="C4">
-        <v>5.833934163621654</v>
+        <v>11.45938113991565</v>
       </c>
       <c r="D4">
-        <v>7.379735629858411</v>
+        <v>8.849418224943632</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.11140927492345</v>
+        <v>56.64309885881127</v>
       </c>
       <c r="G4">
-        <v>3.651679232675459</v>
+        <v>2.062864210976856</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00932864804849</v>
+        <v>26.16365842964657</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.27738491660901</v>
+        <v>16.27432036629926</v>
       </c>
       <c r="C5">
-        <v>5.710634602709279</v>
+        <v>11.21092495309941</v>
       </c>
       <c r="D5">
-        <v>7.334445440941832</v>
+        <v>8.717520378014157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.72357098524044</v>
+        <v>55.56742591839614</v>
       </c>
       <c r="G5">
-        <v>3.652949006992141</v>
+        <v>2.066780576633407</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.8598085995581</v>
+        <v>25.53864401142235</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26410675540896</v>
+        <v>16.21050643970906</v>
       </c>
       <c r="C6">
-        <v>5.689905401646737</v>
+        <v>11.16931826741266</v>
       </c>
       <c r="D6">
-        <v>7.326895842909241</v>
+        <v>8.695541406413167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.65890307469879</v>
+        <v>55.38772364044625</v>
       </c>
       <c r="G6">
-        <v>3.653162000801406</v>
+        <v>2.067432662542769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.83499089514115</v>
+        <v>25.434130595547</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35665744819888</v>
+        <v>16.64997011348484</v>
       </c>
       <c r="C7">
-        <v>5.832288414657173</v>
+        <v>11.45605373014262</v>
       </c>
       <c r="D7">
-        <v>7.379126811938118</v>
+        <v>8.847644575866763</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.10619703808617</v>
+        <v>56.62866477508667</v>
       </c>
       <c r="G7">
-        <v>3.65169621335744</v>
+        <v>2.062916914089787</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.00731166260864</v>
+        <v>26.15527750521836</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.77341889958291</v>
+        <v>18.50564763349711</v>
       </c>
       <c r="C8">
-        <v>6.423577308784815</v>
+        <v>12.67215636867357</v>
       </c>
       <c r="D8">
-        <v>7.605110233849905</v>
+        <v>9.507915132512071</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.03751416307942</v>
+        <v>61.94851609681742</v>
       </c>
       <c r="G8">
-        <v>3.645539133603154</v>
+        <v>2.043193636689591</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76743290242693</v>
+        <v>29.23976472266351</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60968510619682</v>
+        <v>21.87114748487597</v>
       </c>
       <c r="C9">
-        <v>7.451104347692016</v>
+        <v>14.90051610210398</v>
       </c>
       <c r="D9">
-        <v>8.02979216273217</v>
+        <v>10.77019883993819</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.64142131292402</v>
+        <v>71.86503700603818</v>
       </c>
       <c r="G9">
-        <v>3.634571459225055</v>
+        <v>2.004611023412966</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24139251680351</v>
+        <v>35.03951688754452</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.22632265512459</v>
+        <v>24.20865783178906</v>
       </c>
       <c r="C10">
-        <v>8.126554599458533</v>
+        <v>16.46666964743361</v>
       </c>
       <c r="D10">
-        <v>8.328675744415522</v>
+        <v>11.68981925237349</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.15394026815972</v>
+        <v>78.91795014474449</v>
       </c>
       <c r="G10">
-        <v>3.627176658636887</v>
+        <v>1.975523797788649</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30158717517285</v>
+        <v>39.28772365226676</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.50551645540473</v>
+        <v>25.25179817900304</v>
       </c>
       <c r="C11">
-        <v>8.416789611111769</v>
+        <v>17.17076852921968</v>
       </c>
       <c r="D11">
-        <v>8.461439683325246</v>
+        <v>12.11094091964041</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.26343786854838</v>
+        <v>82.10556408878146</v>
       </c>
       <c r="G11">
-        <v>3.623954126003767</v>
+        <v>1.961882012196711</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77662997845971</v>
+        <v>41.2652313394624</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.6109127140456</v>
+        <v>25.64488589366827</v>
       </c>
       <c r="C12">
-        <v>8.524261740093596</v>
+        <v>17.43695051523838</v>
       </c>
       <c r="D12">
-        <v>8.511226864601994</v>
+        <v>12.27137017585864</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.67847008162131</v>
+        <v>83.32459012466111</v>
       </c>
       <c r="G12">
-        <v>3.622753978087038</v>
+        <v>1.956628225218942</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.95530315406542</v>
+        <v>42.0266462673503</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.58823044666816</v>
+        <v>25.56029485410352</v>
       </c>
       <c r="C13">
-        <v>8.501223682568821</v>
+        <v>17.37962921497351</v>
       </c>
       <c r="D13">
-        <v>8.500526407847312</v>
+        <v>12.23676493096847</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.58931713957915</v>
+        <v>83.05724593940396</v>
       </c>
       <c r="G13">
-        <v>3.62301155784223</v>
+        <v>1.95776420096646</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.91687931497598</v>
+        <v>41.86197651138011</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.51419480786614</v>
+        <v>25.28416987283421</v>
       </c>
       <c r="C14">
-        <v>8.42568009196092</v>
+        <v>17.19267141126662</v>
       </c>
       <c r="D14">
-        <v>8.465545627782712</v>
+        <v>12.12411632640926</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.29768682526353</v>
+        <v>82.20488660092896</v>
       </c>
       <c r="G14">
-        <v>3.62385498619292</v>
+        <v>1.961451743126828</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.79135481524952</v>
+        <v>41.32757698014871</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.46879913668568</v>
+        <v>25.114817613861</v>
       </c>
       <c r="C15">
-        <v>8.37909099604213</v>
+        <v>17.07812195552434</v>
       </c>
       <c r="D15">
-        <v>8.44405460435148</v>
+        <v>12.05526098880089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.11838104288038</v>
+        <v>81.68555239747947</v>
       </c>
       <c r="G15">
-        <v>3.624374229927586</v>
+        <v>1.963697993681008</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.71430432356053</v>
+        <v>41.00210482944971</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.20803805385397</v>
+        <v>24.14015793757875</v>
       </c>
       <c r="C16">
-        <v>8.107245676529759</v>
+        <v>16.4205477220533</v>
       </c>
       <c r="D16">
-        <v>8.319932520480853</v>
+        <v>11.66239723277664</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.08073231401126</v>
+        <v>78.7094972708975</v>
       </c>
       <c r="G16">
-        <v>3.62739008885858</v>
+        <v>1.97640479815535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.27038100697327</v>
+        <v>39.15986139613386</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.04762991580623</v>
+        <v>23.53768650325708</v>
       </c>
       <c r="C17">
-        <v>7.936126387933118</v>
+        <v>16.01549287132266</v>
       </c>
       <c r="D17">
-        <v>8.242947855206831</v>
+        <v>11.42243860004399</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.43537432401035</v>
+        <v>76.88067977385197</v>
       </c>
       <c r="G17">
-        <v>3.629276310131734</v>
+        <v>1.984077096129447</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99606396260711</v>
+        <v>38.04485502840285</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.95525101846533</v>
+        <v>23.18918895174875</v>
       </c>
       <c r="C18">
-        <v>7.83609916788793</v>
+        <v>15.78167578944567</v>
       </c>
       <c r="D18">
-        <v>8.198368650565719</v>
+        <v>11.28463956294354</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.06104757204588</v>
+        <v>75.82655731272045</v>
       </c>
       <c r="G18">
-        <v>3.630374534570278</v>
+        <v>1.988453577681969</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83761138271729</v>
+        <v>37.40729391578886</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.92395752773659</v>
+        <v>23.07082885538493</v>
       </c>
       <c r="C19">
-        <v>7.801955723110201</v>
+        <v>15.70234476145503</v>
       </c>
       <c r="D19">
-        <v>8.183224304740879</v>
+        <v>11.23800684045058</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.93377841621393</v>
+        <v>75.46917405594506</v>
       </c>
       <c r="G19">
-        <v>3.630748667591777</v>
+        <v>1.989929866807994</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.78385209508432</v>
+        <v>37.19192387066133</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.06471872050128</v>
+        <v>23.60201835408628</v>
       </c>
       <c r="C20">
-        <v>7.95450821728539</v>
+        <v>16.05869369261238</v>
       </c>
       <c r="D20">
-        <v>8.25117422426332</v>
+        <v>11.44795653894743</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.50440041064606</v>
+        <v>77.07556935229321</v>
       </c>
       <c r="G20">
-        <v>3.629074141389045</v>
+        <v>1.98326431795304</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.02533640981761</v>
+        <v>38.16312348041331</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.53595083573144</v>
+        <v>25.36531774029404</v>
       </c>
       <c r="C21">
-        <v>8.447934999337338</v>
+        <v>17.24759058435103</v>
       </c>
       <c r="D21">
-        <v>8.475833774034388</v>
+        <v>12.15717237900714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.38348661984872</v>
+        <v>82.45397165031314</v>
       </c>
       <c r="G21">
-        <v>3.623606705254728</v>
+        <v>1.960371288618537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.82825868127059</v>
+        <v>41.48413998947822</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.84195738781074</v>
+        <v>26.50715615216466</v>
       </c>
       <c r="C22">
-        <v>8.756240352644914</v>
+        <v>18.02250639506583</v>
       </c>
       <c r="D22">
-        <v>8.61980817324199</v>
+        <v>12.62671567406521</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.58167642993362</v>
+        <v>86.05838364078978</v>
       </c>
       <c r="G22">
-        <v>3.620150816761483</v>
+        <v>1.944875327866901</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.34586313992361</v>
+        <v>43.73298495160103</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.67885939075814</v>
+        <v>25.89831080675886</v>
       </c>
       <c r="C23">
-        <v>8.592984142314112</v>
+        <v>17.60880995505691</v>
       </c>
       <c r="D23">
-        <v>8.543235972640241</v>
+        <v>12.37531335450719</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.94500565447632</v>
+        <v>84.12640883418676</v>
       </c>
       <c r="G23">
-        <v>3.621984606619376</v>
+        <v>1.953207049407867</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.07031514640595</v>
+        <v>42.52277301714074</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.05699335375713</v>
+        <v>23.5729406251573</v>
       </c>
       <c r="C24">
-        <v>7.946202927993022</v>
+        <v>16.03916560133291</v>
       </c>
       <c r="D24">
-        <v>8.247456076479532</v>
+        <v>11.43641943079036</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.47320397832867</v>
+        <v>76.98746847377468</v>
       </c>
       <c r="G24">
-        <v>3.629165498847502</v>
+        <v>1.983631880144922</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.01210464065968</v>
+        <v>38.10964392326886</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.38241367682543</v>
+        <v>20.98704037684604</v>
       </c>
       <c r="C25">
-        <v>7.187159102953592</v>
+        <v>14.31218615256707</v>
       </c>
       <c r="D25">
-        <v>7.917082684610495</v>
+        <v>10.43122542065826</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.6886871282603</v>
+        <v>69.23092460668508</v>
       </c>
       <c r="G25">
-        <v>3.637421230669551</v>
+        <v>2.015110235837951</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84578926037821</v>
+        <v>33.48518818882005</v>
       </c>
       <c r="N25">
         <v>0</v>
